--- a/2023.02 CSS3501_4 Text Analysis in Python/results/v2_melted.xlsx
+++ b/2023.02 CSS3501_4 Text Analysis in Python/results/v2_melted.xlsx
@@ -461,7 +461,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>nsc</t>
+          <t>kazakhstan</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -470,7 +470,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3">
@@ -479,7 +479,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>nsc</t>
+          <t>kazakhstan</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -488,7 +488,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>13</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4">
@@ -497,7 +497,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>kazakhstan</t>
+          <t>wa</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -506,7 +506,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>7</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5">
@@ -515,7 +515,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>kazakhstan</t>
+          <t>wa</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -524,7 +524,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>5</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6">
@@ -533,7 +533,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>operation</t>
+          <t>kazakh</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -542,7 +542,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7">
@@ -551,7 +551,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>operation</t>
+          <t>kazakh</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -560,7 +560,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>11</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8">
@@ -569,7 +569,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>anti-corruption</t>
+          <t>prison</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -578,7 +578,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9">
@@ -587,7 +587,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>anti-corruption</t>
+          <t>prison</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -596,7 +596,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>10</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10">
@@ -605,7 +605,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>drug</t>
+          <t>country</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -614,7 +614,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11">
@@ -623,7 +623,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>drug</t>
+          <t>country</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -632,7 +632,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>9</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12">
@@ -641,7 +641,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>kazakh</t>
+          <t>also</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -650,7 +650,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>3</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13">
@@ -659,7 +659,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>kazakh</t>
+          <t>also</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -668,7 +668,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>6</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14">
@@ -677,7 +677,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>wa</t>
+          <t>people</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -686,7 +686,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15">
@@ -695,7 +695,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>wa</t>
+          <t>people</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -704,7 +704,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>9</v>
+        <v>52</v>
       </c>
     </row>
     <row r="16">
@@ -713,7 +713,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>state</t>
+          <t>said</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -722,7 +722,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>4</v>
+        <v>48</v>
       </c>
     </row>
     <row r="17">
@@ -731,7 +731,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>state</t>
+          <t>said</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -740,7 +740,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>4</v>
+        <v>38</v>
       </c>
     </row>
     <row r="18">
@@ -749,7 +749,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>said</t>
+          <t>year</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -758,7 +758,7 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>5</v>
+        <v>43</v>
       </c>
     </row>
     <row r="19">
@@ -767,7 +767,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>said</t>
+          <t>year</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -776,7 +776,7 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>2</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20">
@@ -785,7 +785,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>group</t>
+          <t>law</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -794,7 +794,7 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>62</v>
       </c>
     </row>
     <row r="21">
@@ -803,7 +803,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>group</t>
+          <t>law</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -812,7 +812,7 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="22">
@@ -821,7 +821,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>reform</t>
+          <t>right</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -830,7 +830,7 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>5</v>
+        <v>33</v>
       </c>
     </row>
     <row r="23">
@@ -839,7 +839,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>reform</t>
+          <t>right</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -848,7 +848,7 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>1</v>
+        <v>41</v>
       </c>
     </row>
     <row r="24">
@@ -857,7 +857,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>security</t>
+          <t>state</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>2</v>
+        <v>40</v>
       </c>
     </row>
     <row r="25">
@@ -875,7 +875,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>security</t>
+          <t>state</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -884,7 +884,7 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>4</v>
+        <v>34</v>
       </c>
     </row>
     <row r="26">
@@ -893,7 +893,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>two</t>
+          <t>ha</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -902,7 +902,7 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
     </row>
     <row r="27">
@@ -911,7 +911,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>two</t>
+          <t>ha</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -920,7 +920,7 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>6</v>
+        <v>35</v>
       </c>
     </row>
     <row r="28">
@@ -929,7 +929,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>committee</t>
+          <t>criminal</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -938,7 +938,7 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>39</v>
       </c>
     </row>
     <row r="29">
@@ -947,7 +947,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>committee</t>
+          <t>criminal</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -956,7 +956,7 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>5</v>
+        <v>25</v>
       </c>
     </row>
     <row r="30">
@@ -965,7 +965,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>council</t>
+          <t>international</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -974,7 +974,7 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>2</v>
+        <v>28</v>
       </c>
     </row>
     <row r="31">
@@ -983,7 +983,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>council</t>
+          <t>international</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -992,7 +992,7 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>3</v>
+        <v>34</v>
       </c>
     </row>
     <row r="32">
@@ -1001,7 +1001,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>credit</t>
+          <t>system</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1010,7 +1010,7 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
     </row>
     <row r="33">
@@ -1019,7 +1019,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>credit</t>
+          <t>system</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1028,7 +1028,7 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>4</v>
+        <v>27</v>
       </c>
     </row>
     <row r="34">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
     </row>
     <row r="35">
@@ -1064,7 +1064,7 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>5</v>
+        <v>27</v>
       </c>
     </row>
     <row r="36">
@@ -1082,7 +1082,7 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>5</v>
+        <v>36</v>
       </c>
     </row>
     <row r="37">
@@ -1100,7 +1100,7 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
     </row>
     <row r="38">
@@ -1109,7 +1109,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>hostage</t>
+          <t>human</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1118,7 +1118,7 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
     </row>
     <row r="39">
@@ -1127,7 +1127,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>hostage</t>
+          <t>human</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1136,7 +1136,7 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>5</v>
+        <v>32</v>
       </c>
     </row>
     <row r="40">
@@ -1145,7 +1145,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>human</t>
+          <t>national</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -1154,7 +1154,7 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>5</v>
+        <v>25</v>
       </c>
     </row>
     <row r="41">
@@ -1163,7 +1163,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>human</t>
+          <t>national</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -1172,7 +1172,7 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
     </row>
     <row r="42">
@@ -1181,7 +1181,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>including</t>
+          <t>political</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -1190,7 +1190,7 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
     </row>
     <row r="43">
@@ -1199,7 +1199,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>including</t>
+          <t>political</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -1208,7 +1208,7 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>2</v>
+        <v>34</v>
       </c>
     </row>
     <row r="44">
@@ -1217,7 +1217,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>partner</t>
+          <t>one</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -1226,7 +1226,7 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>5</v>
+        <v>24</v>
       </c>
     </row>
     <row r="45">
@@ -1235,7 +1235,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>partner</t>
+          <t>one</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -1244,7 +1244,7 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
     </row>
     <row r="46">
@@ -1253,7 +1253,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>photo</t>
+          <t>prosecutor</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -1262,7 +1262,7 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>1</v>
+        <v>41</v>
       </c>
     </row>
     <row r="47">
@@ -1271,7 +1271,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>photo</t>
+          <t>prosecutor</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -1280,7 +1280,7 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="48">
@@ -1289,7 +1289,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>political</t>
+          <t>new</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -1298,7 +1298,7 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>5</v>
+        <v>34</v>
       </c>
     </row>
     <row r="49">
@@ -1307,7 +1307,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>political</t>
+          <t>new</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -1316,7 +1316,7 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="50">
@@ -1325,7 +1325,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>public</t>
+          <t>prisoner</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -1334,7 +1334,7 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="51">
@@ -1343,7 +1343,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>public</t>
+          <t>prisoner</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -1352,7 +1352,7 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>5</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
